--- a/ata mes 4.xlsx
+++ b/ata mes 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CLIENTES\GRUPO H2F\CONTROLADORIA\1. RELATÓRIOS FOLHA\ata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CLIENTES\GRUPO H2F\CONTROLADORIA\ApresentacaoH2F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38662531-3459-407B-A22F-82F9B744FAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56726B-66AD-457D-A8F0-87A43A87921B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Atividade</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Solicitado em</t>
   </si>
 </sst>
 </file>
@@ -431,91 +437,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD77D1B-DC54-4884-8B22-FD70C2911341}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>45041</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>45048</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>45040</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>44981</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61" xr:uid="{8665515C-3220-41D7-ACA1-F66E403FF2E7}">
+      <formula1>"Sim, Não, Em Andamento"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ata mes 4.xlsx
+++ b/ata mes 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CLIENTES\GRUPO H2F\CONTROLADORIA\ApresentacaoH2F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56726B-66AD-457D-A8F0-87A43A87921B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA8F65-E1DB-4A9B-B978-C8A4A97C313D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Atividade</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Apresentação de responsável pelo contábil</t>
   </si>
   <si>
-    <t>vazio</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -76,13 +73,28 @@
   </si>
   <si>
     <t>Solicitado em</t>
+  </si>
+  <si>
+    <t>Não Identificado</t>
+  </si>
+  <si>
+    <t>Contábil</t>
+  </si>
+  <si>
+    <t>Equipe H2F</t>
+  </si>
+  <si>
+    <t>Não Definido</t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +110,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,15 +140,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,25 +476,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD77D1B-DC54-4884-8B22-FD70C2911341}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -463,88 +504,106 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45041</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45048</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45035</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45041</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45040</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45035</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45048</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44981</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45035</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45040</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45035</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44981</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61" xr:uid="{8665515C-3220-41D7-ACA1-F66E403FF2E7}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61" xr:uid="{8665515C-3220-41D7-ACA1-F66E403FF2E7}">
       <formula1>"Sim, Não, Em Andamento"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1397" xr:uid="{9FF8CF18-D9DB-462F-AB03-EDB89AEDAA60}">
+      <formula1>"Contábil,Fiscal,Departamento Pessoal,Relacionamento,Diretoria,Não Definido, Equipe H2F"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ata mes 4.xlsx
+++ b/ata mes 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CLIENTES\GRUPO H2F\CONTROLADORIA\ApresentacaoH2F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA8F65-E1DB-4A9B-B978-C8A4A97C313D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907F9E1A-F6E3-4FAF-8C13-3288CEA1CDBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Atividade</t>
   </si>
@@ -60,13 +60,7 @@
     <t>Realizado?</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
   <si>
     <t>Observação</t>
@@ -479,7 +473,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -505,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -514,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>45041</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>45048</v>
@@ -568,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>45040</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,16 +579,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>44981</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
